--- a/gene_ontology_analysis_miRNA/GO_results_tissue/tissue_enrichment_results.xlsx
+++ b/gene_ontology_analysis_miRNA/GO_results_tissue/tissue_enrichment_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/GO_results_tissue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D460F6-1D91-C54A-8FB6-DBD818BF4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BEC5E2-8E4A-A640-AA5E-3DD4C3B4DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20000" yWindow="700" windowWidth="24360" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouse_Gene_Atlas" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -859,10 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1169,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1976,9 +1973,9 @@
       <c r="N20" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -2017,9 +2014,9 @@
       <c r="N21" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="6"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
